--- a/data/georgia_census/mcxeta-mtianeti/yazbegi/average_wages.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/yazbegi/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212D511A-C634-4CBF-8BB7-51EF8F19C3E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01606146-D042-4DEA-AAFE-9157B05C60E5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA2EB29-9F00-4768-925F-27DC2154A5A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B8A06A5-0908-4BC6-8A51-9458CE78F1BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6BB88D2-6484-4FD4-A75A-B0517ED8547A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F3242E6-7E0C-4CC5-9B4F-3E11CA1A7244}"/>
 </file>